--- a/data/trans_orig/P80_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P80_R-Provincia-trans_orig.xlsx
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4324</v>
+        <v>4867</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.002702841489171369</v>
+        <v>0.00270284148917137</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0135613512375585</v>
+        <v>0.01526402617106908</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6116</v>
+        <v>5999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003441104100016069</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01935169660230099</v>
+        <v>0.01898148501910465</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6375</v>
+        <v>6956</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.003070353819143785</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01004037288510553</v>
+        <v>0.01095522100011458</v>
       </c>
     </row>
     <row r="5">
@@ -812,16 +812,16 @@
         <v>317983</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>314521</v>
+        <v>313978</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9972971585108287</v>
+        <v>0.9972971585108289</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9864386487624415</v>
+        <v>0.9847359738289305</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>314973</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>309945</v>
+        <v>310062</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>316061</v>
@@ -842,7 +842,7 @@
         <v>0.9965588958999839</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9806483033976992</v>
+        <v>0.9810185149808959</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,7 +854,7 @@
         <v>632957</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>628531</v>
+        <v>627950</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>634906</v>
@@ -863,7 +863,7 @@
         <v>0.9969296461808563</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9899596271148945</v>
+        <v>0.9890447789998855</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -958,19 +958,19 @@
         <v>6329</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19277</v>
+        <v>21187</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01192764436548998</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002608021363161369</v>
+        <v>0.00258788306239911</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03632820877813982</v>
+        <v>0.03992722383422475</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -979,19 +979,19 @@
         <v>6086</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2634</v>
+        <v>2576</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11475</v>
+        <v>11631</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01116406978434045</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00483185259060708</v>
+        <v>0.004724808316043936</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02104754365973379</v>
+        <v>0.02133406748341666</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1000,19 +1000,19 @@
         <v>12416</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6027</v>
+        <v>6178</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>28065</v>
+        <v>27345</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01154070142339815</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005601796854284466</v>
+        <v>0.005742156035267196</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02608661696999278</v>
+        <v>0.02541800555694829</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>524318</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>511370</v>
+        <v>509460</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>529263</v>
+        <v>529274</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9880723556345099</v>
+        <v>0.9880723556345101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9636717912218588</v>
+        <v>0.9600727761657751</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9973919786368387</v>
+        <v>0.9974121169376009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>708</v>
@@ -1050,19 +1050,19 @@
         <v>539089</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>533700</v>
+        <v>533544</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>542541</v>
+        <v>542599</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9888359302156595</v>
+        <v>0.9888359302156597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9789524563402658</v>
+        <v>0.9786659325165836</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9951681474093929</v>
+        <v>0.9952751916839562</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1087</v>
@@ -1071,19 +1071,19 @@
         <v>1063406</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1047757</v>
+        <v>1048477</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1069795</v>
+        <v>1069644</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9884592985766019</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9739133830300069</v>
+        <v>0.9745819944430517</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9943982031457154</v>
+        <v>0.9942578439647327</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>9915</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4780</v>
+        <v>5323</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19272</v>
+        <v>18207</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0313767357014522</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01512721237202868</v>
+        <v>0.01684549327794137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06098728279831814</v>
+        <v>0.05761754738725336</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1196,19 +1196,19 @@
         <v>7565</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3698</v>
+        <v>3410</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13700</v>
+        <v>13686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02122685785675789</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01037710375775944</v>
+        <v>0.00956845668593162</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03844323922465963</v>
+        <v>0.03840283736454782</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>20</v>
@@ -1217,19 +1217,19 @@
         <v>17480</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10982</v>
+        <v>11484</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27027</v>
+        <v>28261</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0259969575796779</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01633294111813698</v>
+        <v>0.01707935301438723</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04019607461202786</v>
+        <v>0.04203140389130611</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>306078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>296721</v>
+        <v>297786</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>311213</v>
+        <v>310670</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9686232642985477</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9390127172016819</v>
+        <v>0.9423824526127467</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9848727876279713</v>
+        <v>0.9831545067220585</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>526</v>
@@ -1267,19 +1267,19 @@
         <v>348816</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>342681</v>
+        <v>342695</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>352683</v>
+        <v>352971</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9787731421432422</v>
+        <v>0.9787731421432421</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9615567607753414</v>
+        <v>0.9615971626354519</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9896228962422405</v>
+        <v>0.9904315433140682</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>876</v>
@@ -1288,19 +1288,19 @@
         <v>654895</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>645348</v>
+        <v>644114</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>661393</v>
+        <v>660891</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9740030424203223</v>
+        <v>0.9740030424203221</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9598039253879722</v>
+        <v>0.9579685961086941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9836670588818633</v>
+        <v>0.9829206469856129</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>3616</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11409</v>
+        <v>11463</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009691354377530962</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001761733874386514</v>
+        <v>0.001773595707784375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03057422654096978</v>
+        <v>0.03071970249866979</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1413,19 +1413,19 @@
         <v>4387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11335</v>
+        <v>11034</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01039656471062398</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003386732873565818</v>
+        <v>0.003374817002842393</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02686336063023334</v>
+        <v>0.02614917995527545</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -1434,19 +1434,19 @@
         <v>8003</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3725</v>
+        <v>3203</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18075</v>
+        <v>15997</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01006560800854181</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004684919224504052</v>
+        <v>0.004027848564733229</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02273262813135416</v>
+        <v>0.02011929096575798</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>369529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>361736</v>
+        <v>361682</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372488</v>
+        <v>372483</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.990308645622469</v>
+        <v>0.9903086456224691</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9694257734590305</v>
+        <v>0.9692802975013305</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9982382661256135</v>
+        <v>0.9982264042922157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>594</v>
@@ -1484,19 +1484,19 @@
         <v>417574</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>410626</v>
+        <v>410927</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>420532</v>
+        <v>420537</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9896034352893761</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9731366393697668</v>
+        <v>0.9738508200447248</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9966132671264341</v>
+        <v>0.9966251829971575</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>883</v>
@@ -1505,19 +1505,19 @@
         <v>787104</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>777032</v>
+        <v>779110</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>791382</v>
+        <v>791904</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9899343919914582</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9772673718686464</v>
+        <v>0.9798807090342418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9953150807754961</v>
+        <v>0.9959721514352666</v>
       </c>
     </row>
     <row r="15">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6177</v>
+        <v>6837</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007546834992401762</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02748919186410398</v>
+        <v>0.03042815459994344</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6461</v>
+        <v>8487</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003946978348809758</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01503811002989662</v>
+        <v>0.01975470711066161</v>
       </c>
     </row>
     <row r="17">
@@ -1685,16 +1685,16 @@
         <v>222995</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>218514</v>
+        <v>217854</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>224691</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9924531650075982</v>
+        <v>0.9924531650075983</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9725108081358957</v>
+        <v>0.9695718454000563</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1706,7 +1706,7 @@
         <v>427925</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>423160</v>
+        <v>421134</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>429621</v>
@@ -1715,7 +1715,7 @@
         <v>0.9960530216511903</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9849618899701036</v>
+        <v>0.9802452928893383</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1813,16 +1813,16 @@
         <v>823</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6882</v>
+        <v>7449</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01092070332817105</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00303975094759616</v>
+        <v>0.003039414065858758</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02542155257156846</v>
+        <v>0.02751507778097765</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1831,19 +1831,19 @@
         <v>1559</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4433</v>
+        <v>4251</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.005910658118325017</v>
+        <v>0.005910658118325015</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001342950745560403</v>
+        <v>0.001309432553581952</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01680705518062065</v>
+        <v>0.01611765051441714</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1852,19 +1852,19 @@
         <v>4515</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1902</v>
+        <v>1941</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9085</v>
+        <v>9213</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.008448286995111257</v>
+        <v>0.008448286995111258</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.00355801529329625</v>
+        <v>0.003631772791949399</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01699846115484463</v>
+        <v>0.01723733709778185</v>
       </c>
     </row>
     <row r="20">
@@ -1881,7 +1881,7 @@
         <v>267751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263825</v>
+        <v>263258</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>269884</v>
@@ -1890,10 +1890,10 @@
         <v>0.989079296671829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9745784474284318</v>
+        <v>0.9724849222190225</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9969602490524038</v>
+        <v>0.9969605859341413</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>457</v>
@@ -1902,19 +1902,19 @@
         <v>262191</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>259317</v>
+        <v>259499</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>263396</v>
+        <v>263405</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9940893418816753</v>
+        <v>0.9940893418816749</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9831929448193784</v>
+        <v>0.9838823494855831</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9986570492544397</v>
+        <v>0.998690567446418</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>824</v>
@@ -1923,19 +1923,19 @@
         <v>529942</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>525372</v>
+        <v>525244</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>532555</v>
+        <v>532516</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9915517130048886</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9830015388451556</v>
+        <v>0.9827626629022184</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9964419847067038</v>
+        <v>0.9963682272080506</v>
       </c>
     </row>
     <row r="21">
@@ -2027,19 +2027,19 @@
         <v>26869</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15206</v>
+        <v>15827</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45176</v>
+        <v>44313</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.0373862523602795</v>
+        <v>0.03738625236027949</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02115795683692151</v>
+        <v>0.02202190491322909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06285818586231814</v>
+        <v>0.06165706848991668</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -2048,19 +2048,19 @@
         <v>18510</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11548</v>
+        <v>11696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29796</v>
+        <v>29343</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.02407168184306961</v>
+        <v>0.0240716818430696</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01501726642607431</v>
+        <v>0.01521075303657082</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03874903644300783</v>
+        <v>0.038160039278057</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>37</v>
@@ -2069,19 +2069,19 @@
         <v>45379</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>31947</v>
+        <v>31112</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>65390</v>
+        <v>67246</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03050408419233182</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02147454055453509</v>
+        <v>0.02091377039525214</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04395523221017497</v>
+        <v>0.04520264239419475</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>691829</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>673522</v>
+        <v>674385</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>703492</v>
+        <v>702871</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9626137476397205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9371418141376818</v>
+        <v>0.9383429315100836</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9788420431630779</v>
+        <v>0.9779780950867711</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>935</v>
@@ -2119,19 +2119,19 @@
         <v>750441</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>739155</v>
+        <v>739608</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>757403</v>
+        <v>757255</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9759283181569305</v>
+        <v>0.9759283181569302</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9612509635569922</v>
+        <v>0.9618399607219429</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9849827335739256</v>
+        <v>0.9847892469634291</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1517</v>
@@ -2140,19 +2140,19 @@
         <v>1442270</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1422259</v>
+        <v>1420403</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1455702</v>
+        <v>1456537</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9694959158076683</v>
+        <v>0.969495915807668</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9560447677898251</v>
+        <v>0.9547973576058054</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9785254594454651</v>
+        <v>0.9790862296047479</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>28524</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19043</v>
+        <v>18932</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>41392</v>
+        <v>42363</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03579107665536626</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02389434230743291</v>
+        <v>0.02375558969550523</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05193828210903851</v>
+        <v>0.053155774912453</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2265,19 +2265,19 @@
         <v>14235</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>7906</v>
+        <v>8597</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22369</v>
+        <v>22883</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01715136939881399</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.009526015403775564</v>
+        <v>0.01035876490485528</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02695158190425098</v>
+        <v>0.0275716493739772</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>40</v>
@@ -2286,19 +2286,19 @@
         <v>42759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>30154</v>
+        <v>30805</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>59768</v>
+        <v>58701</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0262821351707854</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01853472563034636</v>
+        <v>0.01893487855963837</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03673735993348782</v>
+        <v>0.03608140403192951</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>768428</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>755560</v>
+        <v>754589</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>777909</v>
+        <v>778020</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9642089233446338</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9480617178909615</v>
+        <v>0.946844225087547</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9761056576925671</v>
+        <v>0.9762444103044947</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1044</v>
@@ -2336,19 +2336,19 @@
         <v>815725</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>807591</v>
+        <v>807077</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>822054</v>
+        <v>821363</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9828486306011861</v>
+        <v>0.9828486306011859</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9730484180957492</v>
+        <v>0.9724283506260227</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9904739845962244</v>
+        <v>0.9896412350951448</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1781</v>
@@ -2357,19 +2357,19 @@
         <v>1584154</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1567145</v>
+        <v>1568212</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1596759</v>
+        <v>1596108</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9737178648292144</v>
+        <v>0.9737178648292145</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9632626400665122</v>
+        <v>0.9639185959680706</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9814652743696537</v>
+        <v>0.9810651214403616</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>79072</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>61299</v>
+        <v>60718</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>107396</v>
+        <v>104110</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02240045856737146</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0173654670732716</v>
+        <v>0.01720105046248395</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03042448393576092</v>
+        <v>0.02949355497304706</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>65</v>
@@ -2482,19 +2482,19 @@
         <v>55125</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>41873</v>
+        <v>41280</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70772</v>
+        <v>71606</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0147910740461344</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01123533471323783</v>
+        <v>0.01107604936178827</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01898947263148371</v>
+        <v>0.01921320309891753</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>126</v>
@@ -2503,19 +2503,19 @@
         <v>134197</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>112698</v>
+        <v>111445</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>165387</v>
+        <v>163330</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01849247488919672</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01552988884242722</v>
+        <v>0.01535720644111731</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02279040271801209</v>
+        <v>0.0225069527405774</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>3450847</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3422523</v>
+        <v>3425809</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3468620</v>
+        <v>3469201</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9775995414326285</v>
+        <v>0.9775995414326284</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9695755160642391</v>
+        <v>0.9705064450269529</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9826345329267283</v>
+        <v>0.982798949537516</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5285</v>
@@ -2553,19 +2553,19 @@
         <v>3671806</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3656159</v>
+        <v>3655325</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3685058</v>
+        <v>3685651</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9852089259538656</v>
+        <v>0.9852089259538657</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9810105273685163</v>
+        <v>0.9807867969010827</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9887646652867622</v>
+        <v>0.9889239506382119</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8597</v>
@@ -2574,19 +2574,19 @@
         <v>7122653</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>7091463</v>
+        <v>7093520</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7144152</v>
+        <v>7145405</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9815075251108033</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9772095972819869</v>
+        <v>0.9774930472594223</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9844701111575729</v>
+        <v>0.9846427935588827</v>
       </c>
     </row>
     <row r="30">
